--- a/financial_models/opportunities/2888.HK_Valuation_v1.00.xlsx
+++ b/financial_models/opportunities/2888.HK_Valuation_v1.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531A9044-78A8-44F8-B572-A86C5B933791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{785EE14F-2C2C-41B0-A5F9-89FE423FA227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -3566,8 +3566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4856229628034118E-2</v>
+        <v>2.4408384822640065E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4823,8 +4823,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>93.900001525878906</v>
+        <v>95.65</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="G5" s="272">
         <f>G3*G4/1000000</f>
-        <v>230492.36694001048</v>
+        <v>234788.01426575001</v>
       </c>
       <c r="H5" s="272"/>
       <c r="I5" s="38"/>
@@ -4967,7 +4967,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>7.78</v>
+        <v>7.7822066942850752</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.15389720913939073</v>
+        <v>0.15112438048801777</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4856229628034118E-2</v>
+        <v>2.4408384822640065E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5212,20 +5212,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.896679516673746</v>
+        <v>16.864576012350195</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.402845112099186</v>
+        <v>33.339380075586128</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.878446490204407</v>
+        <v>19.840677661588465</v>
       </c>
       <c r="G29" s="271">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.0459522713906</v>
+        <v>28.990765283118375</v>
       </c>
       <c r="H29" s="271"/>
     </row>
@@ -10230,8 +10230,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12100,17 +12100,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15389720913939078</v>
+        <v>0.15112438048801785</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15389720913939073</v>
+        <v>0.15112438048801777</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15389720913939073</v>
+        <v>0.15112438048801777</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12151,17 +12151,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4856229628034118E-2</v>
+        <v>2.4408384822640065E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4856229628034118E-2</v>
+        <v>2.4408384822640065E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4856229628034118E-2</v>
+        <v>2.4408384822640065E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12221,14 +12221,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>447.90717835860653</v>
+        <v>442.67687312015721</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>447.90717835860653</v>
+        <v>442.67687312015721</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12246,14 +12246,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>39.982656224406767</v>
+        <v>39.906689619506636</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>39.982656224406767</v>
+        <v>39.906689619506636</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12296,21 +12296,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>546625.35113650572</v>
+        <v>540242.29327171412</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>222.68902865300083</v>
+        <v>220.08864256993505</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>222.68902865300083</v>
+        <v>220.08864256993505</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>325.38834967836988</v>
+        <v>321.58872227322348</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12359,27 +12359,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>546625.35113650572</v>
+        <v>540242.29327171412</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>189.2856743550507</v>
+        <v>187.07534618444475</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>222.68902865300083</v>
+        <v>220.08864256993505</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>222.68902865300083</v>
+        <v>220.08864256993502</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>222.68902865300086</v>
+        <v>220.08864256993502</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>325.38834967836988</v>
+        <v>321.58872227322348</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12420,27 +12420,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>48794.782834532773</v>
+        <v>48702.073286473387</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>16.896679516673746</v>
+        <v>16.864576012350195</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>19.878446490204407</v>
+        <v>19.840677661588465</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>19.878446490204407</v>
+        <v>19.840677661588465</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>19.878446490204407</v>
+        <v>19.840677661588465</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>29.0459522713906</v>
+        <v>28.990765283118375</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12481,27 +12481,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>297710.06698551925</v>
+        <v>294472.18327909382</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>103.09117693586222</v>
+        <v>101.96996109839748</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>121.28373757160261</v>
+        <v>119.96466011576176</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>121.28373757160261</v>
+        <v>119.96466011576175</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>121.28373757160263</v>
+        <v>119.96466011576175</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>177.21715097488024</v>
+        <v>175.28974377817093</v>
       </c>
       <c r="K106" s="24"/>
     </row>
